--- a/pred_ohlcv/54_21/2020-01-23 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 VET ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-995243.1529</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-647022.4262999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-421789.5937999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-497826.7341999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-464750.8520999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1072997.252</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1072762.252</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1101109.08175079</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-911109.0817507897</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-910609.0817507897</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-945669.0817507897</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-951276.7508507897</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1293540.75935079</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1151046.75935079</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1194359.12465079</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1240517.63265079</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1219163.58065079</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1237462.26915079</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1218579.81465079</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4551402.60955079</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7847557.60955079</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5933000.395550793</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5977980.858750793</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5978180.558750793</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6213088.332950793</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5137077.292450793</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6006051.518950793</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5874828.170650793</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-5841188.292250793</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-5740910.104850793</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-5740910.104850793</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-5747477.957750794</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-5746316.395389497</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-5689989.453889498</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5616388.598389498</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 VET ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-461458.0737999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-401721.8647999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-363359.8518999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-363359.8518999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-421789.5937999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-438396.1965999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-497826.7341999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-485625.2159999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-464750.8520999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-532384.6283999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-561753.0658999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-488099.2487999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1072997.252</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1072762.252</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1072325.44685079</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1101109.08175079</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-911109.0817507897</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-910609.0817507897</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-945669.0817507897</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-951276.7508507897</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1293540.75935079</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1151046.75935079</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1153359.12465079</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1194359.12465079</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1045932.03545079</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1076229.86575079</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1084953.39355079</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1084223.17815079</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1040517.63265079</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1240517.63265079</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1218262.13275079</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1225528.21115079</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1219163.58065079</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1237462.26915079</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1218579.81465079</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4551402.60955079</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7847557.60955079</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5724415.77205079</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-6104666.897050793</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5933000.395550793</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5977980.858750793</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5978180.558750793</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-6213088.332950793</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5137077.292450793</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6006051.519050793</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6006051.518950793</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5924825.946350793</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5912235.946350793</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5723045.891889498</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5616388.598389498</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5615817.167589498</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
